--- a/selAutoGitFreeRepo/target/classes/excelFiles/login.xlsx
+++ b/selAutoGitFreeRepo/target/classes/excelFiles/login.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Pass@2018-01-19 11:19:17.729</t>
+  </si>
+  <si>
+    <t>Pass@2018-01-23 14:38:16.769</t>
+  </si>
+  <si>
+    <t>Pass@2018-01-23 14:51:01.246</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
